--- a/1-Compras/5-Tabla estimulo respuesta/Estimulo-Respuesta Compras.xlsx
+++ b/1-Compras/5-Tabla estimulo respuesta/Estimulo-Respuesta Compras.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>Evento</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Factura proveedor</t>
   </si>
   <si>
-    <t>Remito proveedor</t>
-  </si>
-  <si>
     <t>Informe de recepción</t>
   </si>
   <si>
@@ -190,12 +187,6 @@
   </si>
   <si>
     <t>Consulta facturas registradas</t>
-  </si>
-  <si>
-    <t>Consulta remitos originales</t>
-  </si>
-  <si>
-    <t>Consulta remitos devoluciones</t>
   </si>
   <si>
     <t>Consulta si hay remitos o facturas asociados sin procesar</t>
@@ -763,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -792,28 +783,28 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5">
       <c r="A4" s="3"/>
       <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5">
@@ -821,46 +812,46 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5">
       <c r="A8" s="2"/>
       <c r="B8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
@@ -868,19 +859,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.75">
       <c r="A11" s="4"/>
       <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.5" thickBot="1">
@@ -891,19 +882,19 @@
     <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="6"/>
       <c r="B13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="6"/>
       <c r="B14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="25.5">
@@ -911,19 +902,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.75">
       <c r="A16" s="7"/>
       <c r="B16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.5" thickBot="1">
@@ -934,19 +925,19 @@
     <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="3"/>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5">
@@ -954,64 +945,64 @@
         <v>7</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27.75">
       <c r="A21" s="4"/>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.5" thickBot="1">
       <c r="A22" s="5"/>
       <c r="B22" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="3"/>
       <c r="B24" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25.5">
       <c r="A25" s="3"/>
       <c r="B25" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5">
       <c r="A26" s="3"/>
       <c r="B26" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5">
@@ -1019,46 +1010,46 @@
         <v>8</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25.5">
       <c r="A28" s="3"/>
       <c r="B28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27.75">
       <c r="A29" s="4"/>
       <c r="B29" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75">
       <c r="A30" s="4"/>
       <c r="B30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="27.75">
       <c r="A31" s="4"/>
       <c r="B31" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.5" thickBot="1">
@@ -1069,28 +1060,28 @@
     <row r="33" spans="1:3" ht="25.5">
       <c r="A33" s="2"/>
       <c r="B33" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25.5">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25.5">
       <c r="A35" s="3"/>
       <c r="B35" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5">
@@ -1098,28 +1089,28 @@
         <v>9</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="27.75">
       <c r="A37" s="4"/>
       <c r="B37" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27.75">
       <c r="A38" s="4"/>
       <c r="B38" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.5" thickBot="1">
@@ -1130,19 +1121,19 @@
     <row r="40" spans="1:3" ht="25.5">
       <c r="A40" s="2"/>
       <c r="B40" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="3"/>
       <c r="B41" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5">
@@ -1150,19 +1141,19 @@
         <v>10</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="27.75">
       <c r="A43" s="4"/>
       <c r="B43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28.5" thickBot="1">
@@ -1173,19 +1164,19 @@
     <row r="45" spans="1:3" ht="25.5">
       <c r="A45" s="2"/>
       <c r="B45" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25.5">
       <c r="A46" s="3"/>
       <c r="B46" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25.5">
@@ -1193,140 +1184,132 @@
         <v>11</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="27.75">
       <c r="A48" s="4"/>
       <c r="B48" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.5" thickBot="1">
       <c r="A49" s="5"/>
       <c r="B49" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25.5">
       <c r="A50" s="2"/>
       <c r="B50" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25.5">
       <c r="A51" s="3"/>
       <c r="B51" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="25.5">
-      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="22.5">
+      <c r="A52" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="27.75">
-      <c r="A53" s="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.5" thickBot="1">
+      <c r="A53" s="5"/>
       <c r="B53" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.5" thickBot="1">
-      <c r="A54" s="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="27.75">
+      <c r="A54" s="9"/>
       <c r="B54" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="25.5">
-      <c r="A55" s="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="27.75">
+      <c r="A55" s="4"/>
       <c r="B55" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25.5">
       <c r="A56" s="3"/>
       <c r="B56" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="22.5">
-      <c r="A57" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="25.5">
+      <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="28.5" thickBot="1">
-      <c r="A58" s="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="25.5">
+      <c r="A58" s="3"/>
       <c r="B58" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="27.75">
-      <c r="A59" s="9"/>
-      <c r="B59" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="27.75">
-      <c r="A60" s="4"/>
-      <c r="B60" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:3" ht="28.5" thickBot="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="25.5">
-      <c r="A61" s="3"/>
+      <c r="A61" s="2"/>
       <c r="B61" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25.5">
@@ -1337,100 +1320,61 @@
         <v>72</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25.5">
       <c r="A63" s="3"/>
       <c r="B63" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="27.75">
-      <c r="A64" s="4"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="65" spans="1:3" ht="28.5" thickBot="1">
-      <c r="A65" s="5"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.5" thickBot="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="25.5">
+      <c r="A65" s="2"/>
+      <c r="B65" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="25.5">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25.5">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="25.5">
-      <c r="A68" s="3"/>
-      <c r="B68" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3" ht="27.75">
+      <c r="A68" s="4"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" ht="28.5" thickBot="1">
       <c r="A69" s="5"/>
-      <c r="B69" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="25.5">
-      <c r="A70" s="2"/>
-      <c r="B70" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="25.5">
-      <c r="A71" s="3"/>
-      <c r="B71" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="25.5">
-      <c r="A72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-    </row>
-    <row r="73" spans="1:3" ht="27.75">
-      <c r="A73" s="4"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-    </row>
-    <row r="74" spans="1:3" ht="28.5" thickBot="1">
-      <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
